--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H2">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I2">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J2">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N2">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O2">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P2">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q2">
-        <v>3.326452740352469</v>
+        <v>2.361353224377778</v>
       </c>
       <c r="R2">
-        <v>3.326452740352469</v>
+        <v>21.2521790194</v>
       </c>
       <c r="S2">
-        <v>0.04547197658902783</v>
+        <v>0.01965454654237988</v>
       </c>
       <c r="T2">
-        <v>0.04547197658902783</v>
+        <v>0.01965454654237988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H3">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I3">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J3">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N3">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P3">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q3">
-        <v>8.77931304516064</v>
+        <v>5.892282869204444</v>
       </c>
       <c r="R3">
-        <v>8.77931304516064</v>
+        <v>53.03054582284</v>
       </c>
       <c r="S3">
-        <v>0.1200115403458252</v>
+        <v>0.04904397474213653</v>
       </c>
       <c r="T3">
-        <v>0.1200115403458252</v>
+        <v>0.04904397474213654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H4">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I4">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J4">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N4">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O4">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P4">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q4">
-        <v>1.581987444021527</v>
+        <v>1.281413377346667</v>
       </c>
       <c r="R4">
-        <v>1.581987444021527</v>
+        <v>11.53272039612</v>
       </c>
       <c r="S4">
-        <v>0.02162546761781457</v>
+        <v>0.01066574818416872</v>
       </c>
       <c r="T4">
-        <v>0.02162546761781457</v>
+        <v>0.01066574818416873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H5">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I5">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J5">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N5">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O5">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P5">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q5">
-        <v>1.915556218604241</v>
+        <v>1.302367771577778</v>
       </c>
       <c r="R5">
-        <v>1.915556218604241</v>
+        <v>11.7213099442</v>
       </c>
       <c r="S5">
-        <v>0.02618528935364018</v>
+        <v>0.0108401605136885</v>
       </c>
       <c r="T5">
-        <v>0.02618528935364018</v>
+        <v>0.0108401605136885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H6">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I6">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J6">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N6">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O6">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P6">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q6">
-        <v>1.261249432566008</v>
+        <v>0.8528149516555554</v>
       </c>
       <c r="R6">
-        <v>1.261249432566008</v>
+        <v>7.675334564899999</v>
       </c>
       <c r="S6">
-        <v>0.01724103997475978</v>
+        <v>0.007098341318151716</v>
       </c>
       <c r="T6">
-        <v>0.01724103997475978</v>
+        <v>0.007098341318151717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H7">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I7">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J7">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.9326655377078</v>
+        <v>16.981576</v>
       </c>
       <c r="N7">
-        <v>12.9326655377078</v>
+        <v>50.944728</v>
       </c>
       <c r="O7">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300346</v>
       </c>
       <c r="P7">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300347</v>
       </c>
       <c r="Q7">
-        <v>4.216061495686038</v>
+        <v>3.678096151093333</v>
       </c>
       <c r="R7">
-        <v>4.216061495686038</v>
+        <v>33.10286535984</v>
       </c>
       <c r="S7">
-        <v>0.05763275915635686</v>
+        <v>0.03061435758221269</v>
       </c>
       <c r="T7">
-        <v>0.05763275915635686</v>
+        <v>0.0306143575822127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H8">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I8">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J8">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N8">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O8">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P8">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q8">
-        <v>1.82463122475219</v>
+        <v>3.853488758194445</v>
       </c>
       <c r="R8">
-        <v>1.82463122475219</v>
+        <v>34.68139882375</v>
       </c>
       <c r="S8">
-        <v>0.02494236197287725</v>
+        <v>0.03207422479897205</v>
       </c>
       <c r="T8">
-        <v>0.02494236197287725</v>
+        <v>0.03207422479897207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H9">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I9">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J9">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N9">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P9">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q9">
-        <v>4.815642957962773</v>
+        <v>9.615607509361112</v>
       </c>
       <c r="R9">
-        <v>4.815642957962773</v>
+        <v>86.54046758425001</v>
       </c>
       <c r="S9">
-        <v>0.06582892376291426</v>
+        <v>0.0800347882624781</v>
       </c>
       <c r="T9">
-        <v>0.06582892376291426</v>
+        <v>0.08003478826247813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H10">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I10">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J10">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N10">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O10">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P10">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q10">
-        <v>0.8677543055133647</v>
+        <v>2.091136553916667</v>
       </c>
       <c r="R10">
-        <v>0.8677543055133647</v>
+        <v>18.82022898525</v>
       </c>
       <c r="S10">
-        <v>0.01186203639290268</v>
+        <v>0.01740541834280512</v>
       </c>
       <c r="T10">
-        <v>0.01186203639290268</v>
+        <v>0.01740541834280512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H11">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I11">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J11">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N11">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O11">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P11">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q11">
-        <v>1.050723987999055</v>
+        <v>2.125331998194445</v>
       </c>
       <c r="R11">
-        <v>1.050723987999055</v>
+        <v>19.12798798375</v>
       </c>
       <c r="S11">
-        <v>0.01436319716923451</v>
+        <v>0.01769004155976244</v>
       </c>
       <c r="T11">
-        <v>0.01436319716923451</v>
+        <v>0.01769004155976244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H12">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I12">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J12">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N12">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O12">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P12">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q12">
-        <v>0.6918225739221152</v>
+        <v>1.391707430763889</v>
       </c>
       <c r="R12">
-        <v>0.6918225739221152</v>
+        <v>12.525366876875</v>
       </c>
       <c r="S12">
-        <v>0.009457083067356029</v>
+        <v>0.01158377246950526</v>
       </c>
       <c r="T12">
-        <v>0.009457083067356029</v>
+        <v>0.01158377246950526</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H13">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I13">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J13">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.9326655377078</v>
+        <v>16.981576</v>
       </c>
       <c r="N13">
-        <v>12.9326655377078</v>
+        <v>50.944728</v>
       </c>
       <c r="O13">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300346</v>
       </c>
       <c r="P13">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300347</v>
       </c>
       <c r="Q13">
-        <v>2.312600854713795</v>
+        <v>6.002279550333334</v>
       </c>
       <c r="R13">
-        <v>2.312600854713795</v>
+        <v>54.02051595300001</v>
       </c>
       <c r="S13">
-        <v>0.03161281404952979</v>
+        <v>0.04995952387152388</v>
       </c>
       <c r="T13">
-        <v>0.03161281404952979</v>
+        <v>0.04995952387152389</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H14">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I14">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J14">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N14">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O14">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P14">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q14">
-        <v>1.737467000356321</v>
+        <v>2.248220645307778</v>
       </c>
       <c r="R14">
-        <v>1.737467000356321</v>
+        <v>20.23398580777</v>
       </c>
       <c r="S14">
-        <v>0.02375084359564344</v>
+        <v>0.01871289600156479</v>
       </c>
       <c r="T14">
-        <v>0.02375084359564344</v>
+        <v>0.01871289600156479</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H15">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I15">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J15">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N15">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P15">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q15">
-        <v>4.585595495382896</v>
+        <v>5.609983232402445</v>
       </c>
       <c r="R15">
-        <v>4.585595495382896</v>
+        <v>50.489849091622</v>
       </c>
       <c r="S15">
-        <v>0.0626842186823638</v>
+        <v>0.0466942748780326</v>
       </c>
       <c r="T15">
-        <v>0.0626842186823638</v>
+        <v>0.04669427487803261</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H16">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I16">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J16">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N16">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O16">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P16">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q16">
-        <v>0.8263009257946651</v>
+        <v>1.220020783160667</v>
       </c>
       <c r="R16">
-        <v>0.8263009257946651</v>
+        <v>10.980187048446</v>
       </c>
       <c r="S16">
-        <v>0.0112953765725966</v>
+        <v>0.01015475152880636</v>
       </c>
       <c r="T16">
-        <v>0.0112953765725966</v>
+        <v>0.01015475152880636</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H17">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I17">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J17">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N17">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O17">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P17">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q17">
-        <v>1.000529987027428</v>
+        <v>1.239971251067778</v>
       </c>
       <c r="R17">
-        <v>1.000529987027428</v>
+        <v>11.15974125961</v>
       </c>
       <c r="S17">
-        <v>0.01367705471802698</v>
+        <v>0.01032080775282846</v>
       </c>
       <c r="T17">
-        <v>0.01367705471802698</v>
+        <v>0.01032080775282846</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H18">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I18">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J18">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N18">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O18">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P18">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q18">
-        <v>0.6587736064061368</v>
+        <v>0.8119565345605555</v>
       </c>
       <c r="R18">
-        <v>0.6587736064061368</v>
+        <v>7.307608811044999</v>
       </c>
       <c r="S18">
-        <v>0.009005309964149735</v>
+        <v>0.006758259346445321</v>
       </c>
       <c r="T18">
-        <v>0.009005309964149735</v>
+        <v>0.006758259346445322</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H19">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I19">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J19">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.9326655377078</v>
+        <v>16.981576</v>
       </c>
       <c r="N19">
-        <v>12.9326655377078</v>
+        <v>50.944728</v>
       </c>
       <c r="O19">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300346</v>
       </c>
       <c r="P19">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300347</v>
       </c>
       <c r="Q19">
-        <v>2.202125895662423</v>
+        <v>3.501878336941334</v>
       </c>
       <c r="R19">
-        <v>2.202125895662423</v>
+        <v>31.516905032472</v>
       </c>
       <c r="S19">
-        <v>0.03010264236101649</v>
+        <v>0.02914762181642756</v>
       </c>
       <c r="T19">
-        <v>0.03010264236101649</v>
+        <v>0.02914762181642757</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H20">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I20">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J20">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N20">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O20">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P20">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q20">
-        <v>4.654895556182183</v>
+        <v>2.028558612546667</v>
       </c>
       <c r="R20">
-        <v>4.654895556182183</v>
+        <v>18.25702751292</v>
       </c>
       <c r="S20">
-        <v>0.06363153733927925</v>
+        <v>0.01688455553901723</v>
       </c>
       <c r="T20">
-        <v>0.06363153733927925</v>
+        <v>0.01688455553901724</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H21">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I21">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J21">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N21">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O21">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P21">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q21">
-        <v>12.28539482449412</v>
+        <v>5.061860732434666</v>
       </c>
       <c r="R21">
-        <v>12.28539482449412</v>
+        <v>45.556746591912</v>
       </c>
       <c r="S21">
-        <v>0.1679390117495453</v>
+        <v>0.04213201833999135</v>
       </c>
       <c r="T21">
-        <v>0.1679390117495453</v>
+        <v>0.04213201833999135</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H22">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I22">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J22">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N22">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O22">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P22">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q22">
-        <v>2.21376550274739</v>
+        <v>1.100818850824</v>
       </c>
       <c r="R22">
-        <v>2.21376550274739</v>
+        <v>9.907369657415998</v>
       </c>
       <c r="S22">
-        <v>0.03026175357713346</v>
+        <v>0.009162583181070083</v>
       </c>
       <c r="T22">
-        <v>0.03026175357713346</v>
+        <v>0.009162583181070084</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H23">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I23">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J23">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N23">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O23">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P23">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q23">
-        <v>2.680547365495779</v>
+        <v>1.118820061506667</v>
       </c>
       <c r="R23">
-        <v>2.680547365495779</v>
+        <v>10.06938055356</v>
       </c>
       <c r="S23">
-        <v>0.03664257290385822</v>
+        <v>0.009312414908712138</v>
       </c>
       <c r="T23">
-        <v>0.03664257290385822</v>
+        <v>0.00931241490871214</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H24">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I24">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J24">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N24">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O24">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P24">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q24">
-        <v>1.764938460621786</v>
+        <v>0.7326244533133331</v>
       </c>
       <c r="R24">
-        <v>1.764938460621786</v>
+        <v>6.593620079819998</v>
       </c>
       <c r="S24">
-        <v>0.02412637323504101</v>
+        <v>0.006097944715376835</v>
       </c>
       <c r="T24">
-        <v>0.02412637323504101</v>
+        <v>0.006097944715376836</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.186068</v>
+      </c>
+      <c r="H25">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J25">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.981576</v>
+      </c>
+      <c r="N25">
+        <v>50.944728</v>
+      </c>
+      <c r="O25">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P25">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q25">
+        <v>3.159727883168</v>
+      </c>
+      <c r="R25">
+        <v>28.437550948512</v>
+      </c>
+      <c r="S25">
+        <v>0.02629975816402698</v>
+      </c>
+      <c r="T25">
+        <v>0.02629975816402699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.195893</v>
+      </c>
+      <c r="H26">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J26">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.90224333333333</v>
+      </c>
+      <c r="N26">
+        <v>32.70673</v>
+      </c>
+      <c r="O26">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="P26">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="Q26">
+        <v>2.135673153296667</v>
+      </c>
+      <c r="R26">
+        <v>19.22105837967</v>
+      </c>
+      <c r="S26">
+        <v>0.01777611538902284</v>
+      </c>
+      <c r="T26">
+        <v>0.01777611538902285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.195893</v>
+      </c>
+      <c r="H27">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J27">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N27">
+        <v>81.613078</v>
+      </c>
+      <c r="O27">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="P27">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="Q27">
+        <v>5.329143562884667</v>
+      </c>
+      <c r="R27">
+        <v>47.962292065962</v>
+      </c>
+      <c r="S27">
+        <v>0.04435672694217128</v>
+      </c>
+      <c r="T27">
+        <v>0.0443567269421713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.195893</v>
+      </c>
+      <c r="H28">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J28">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.916218</v>
+      </c>
+      <c r="N28">
+        <v>17.748654</v>
+      </c>
+      <c r="O28">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="P28">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="Q28">
+        <v>1.158945692674</v>
+      </c>
+      <c r="R28">
+        <v>10.430511234066</v>
+      </c>
+      <c r="S28">
+        <v>0.009646397591683481</v>
+      </c>
+      <c r="T28">
+        <v>0.009646397591683483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.195893</v>
+      </c>
+      <c r="H29">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J29">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.012963333333334</v>
+      </c>
+      <c r="N29">
+        <v>18.03889</v>
+      </c>
+      <c r="O29">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="P29">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="Q29">
+        <v>1.177897426256667</v>
+      </c>
+      <c r="R29">
+        <v>10.60107683631</v>
+      </c>
+      <c r="S29">
+        <v>0.009804140925426979</v>
+      </c>
+      <c r="T29">
+        <v>0.009804140925426981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.195893</v>
+      </c>
+      <c r="H30">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J30">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.937401666666666</v>
+      </c>
+      <c r="N30">
+        <v>11.812205</v>
+      </c>
+      <c r="O30">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="P30">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="Q30">
+        <v>0.7713094246883333</v>
+      </c>
+      <c r="R30">
+        <v>6.941784822195</v>
+      </c>
+      <c r="S30">
+        <v>0.006419936174566904</v>
+      </c>
+      <c r="T30">
+        <v>0.006419936174566905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.195893</v>
+      </c>
+      <c r="H31">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J31">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.981576</v>
+      </c>
+      <c r="N31">
+        <v>50.944728</v>
+      </c>
+      <c r="O31">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P31">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q31">
+        <v>3.326571867368</v>
+      </c>
+      <c r="R31">
+        <v>29.93914680631201</v>
+      </c>
+      <c r="S31">
+        <v>0.02768847155892329</v>
+      </c>
+      <c r="T31">
+        <v>0.0276884715589233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H32">
+        <v>1.605008</v>
+      </c>
+      <c r="I32">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J32">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.90224333333333</v>
+      </c>
+      <c r="N32">
+        <v>32.70673</v>
+      </c>
+      <c r="O32">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="P32">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="Q32">
+        <v>5.832729255982222</v>
+      </c>
+      <c r="R32">
+        <v>52.49456330384</v>
+      </c>
+      <c r="S32">
+        <v>0.04854828470696549</v>
+      </c>
+      <c r="T32">
+        <v>0.04854828470696551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H33">
+        <v>1.605008</v>
+      </c>
+      <c r="I33">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J33">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N33">
+        <v>81.613078</v>
+      </c>
+      <c r="O33">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="P33">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="Q33">
+        <v>14.55440478829155</v>
+      </c>
+      <c r="R33">
+        <v>130.989643094624</v>
+      </c>
+      <c r="S33">
+        <v>0.121142497172777</v>
+      </c>
+      <c r="T33">
+        <v>0.1211424971727771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H34">
+        <v>1.605008</v>
+      </c>
+      <c r="I34">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J34">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.916218</v>
+      </c>
+      <c r="N34">
+        <v>17.748654</v>
+      </c>
+      <c r="O34">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="P34">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="Q34">
+        <v>3.165192406581333</v>
+      </c>
+      <c r="R34">
+        <v>28.48673165923199</v>
+      </c>
+      <c r="S34">
+        <v>0.0263452417150055</v>
+      </c>
+      <c r="T34">
+        <v>0.0263452417150055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.45619179945392</v>
-      </c>
-      <c r="H25">
-        <v>0.45619179945392</v>
-      </c>
-      <c r="I25">
-        <v>0.4032500646539642</v>
-      </c>
-      <c r="J25">
-        <v>0.4032500646539642</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>12.9326655377078</v>
-      </c>
-      <c r="N25">
-        <v>12.9326655377078</v>
-      </c>
-      <c r="O25">
-        <v>0.1999970314160101</v>
-      </c>
-      <c r="P25">
-        <v>0.1999970314160101</v>
-      </c>
-      <c r="Q25">
-        <v>5.89977596338262</v>
-      </c>
-      <c r="R25">
-        <v>5.89977596338262</v>
-      </c>
-      <c r="S25">
-        <v>0.08064881584910698</v>
-      </c>
-      <c r="T25">
-        <v>0.08064881584910698</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H35">
+        <v>1.605008</v>
+      </c>
+      <c r="I35">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J35">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.012963333333334</v>
+      </c>
+      <c r="N35">
+        <v>18.03889</v>
+      </c>
+      <c r="O35">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="P35">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="Q35">
+        <v>3.216951417902222</v>
+      </c>
+      <c r="R35">
+        <v>28.95256276112</v>
+      </c>
+      <c r="S35">
+        <v>0.02677605396557934</v>
+      </c>
+      <c r="T35">
+        <v>0.02677605396557935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H36">
+        <v>1.605008</v>
+      </c>
+      <c r="I36">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J36">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.937401666666666</v>
+      </c>
+      <c r="N36">
+        <v>11.812205</v>
+      </c>
+      <c r="O36">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="P36">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="Q36">
+        <v>2.106520391404444</v>
+      </c>
+      <c r="R36">
+        <v>18.95868352263999</v>
+      </c>
+      <c r="S36">
+        <v>0.01753346456087299</v>
+      </c>
+      <c r="T36">
+        <v>0.01753346456087299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H37">
+        <v>1.605008</v>
+      </c>
+      <c r="I37">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J37">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>16.981576</v>
+      </c>
+      <c r="N37">
+        <v>50.944728</v>
+      </c>
+      <c r="O37">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P37">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q37">
+        <v>9.085188444202666</v>
+      </c>
+      <c r="R37">
+        <v>81.766695997824</v>
+      </c>
+      <c r="S37">
+        <v>0.07561988493692022</v>
+      </c>
+      <c r="T37">
+        <v>0.07561988493692025</v>
       </c>
     </row>
   </sheetData>
